--- a/sanPham.xlsx
+++ b/sanPham.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>STT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Mã SP</t>
   </si>
@@ -23,10 +20,37 @@
     <t>Tên SP</t>
   </si>
   <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>Giày Cute</t>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Nhà sản xuất</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Màu sắc</t>
+  </si>
+  <si>
+    <t>Chất liệu</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Giá nhập</t>
+  </si>
+  <si>
+    <t>Giá bán</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Hình ảnh</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
   <si>
     <t>SP2</t>
@@ -35,43 +59,91 @@
     <t>Giày Meo</t>
   </si>
   <si>
+    <t>Giày nam</t>
+  </si>
+  <si>
+    <t>FiFai</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Bê tông</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>anh1.jpg</t>
+  </si>
+  <si>
+    <t>Cute</t>
+  </si>
+  <si>
+    <t>Đen</t>
+  </si>
+  <si>
+    <t>Giấy</t>
+  </si>
+  <si>
+    <t>Xinh</t>
+  </si>
+  <si>
+    <t>anh2.jpg</t>
+  </si>
+  <si>
     <t>SP4</t>
   </si>
   <si>
     <t>Baka</t>
   </si>
   <si>
+    <t>Giày nữ</t>
+  </si>
+  <si>
+    <t>Anime</t>
+  </si>
+  <si>
+    <t>Trắng</t>
+  </si>
+  <si>
+    <t>oww</t>
+  </si>
+  <si>
+    <t>anh3.jpg</t>
+  </si>
+  <si>
     <t>SP5</t>
   </si>
   <si>
     <t>onichan</t>
   </si>
   <si>
+    <t>Xanh</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>img0.jpg</t>
+  </si>
+  <si>
     <t>SP3</t>
   </si>
   <si>
     <t>Umoa</t>
   </si>
   <si>
+    <t>zzz</t>
+  </si>
+  <si>
     <t>SP6</t>
   </si>
   <si>
     <t>Itachi</t>
   </si>
   <si>
-    <t>SP7</t>
-  </si>
-  <si>
-    <t>hơ mẹc</t>
-  </si>
-  <si>
-    <t>SP0</t>
-  </si>
-  <si>
-    <t>zách</t>
-  </si>
-  <si>
-    <t>SP8</t>
+    <t>zaaa</t>
   </si>
   <si>
     <t>SP18</t>
@@ -80,22 +152,40 @@
     <t>giày du mục</t>
   </si>
   <si>
-    <t>SP19</t>
-  </si>
-  <si>
-    <t>hayyy</t>
-  </si>
-  <si>
-    <t>SP9</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
+    <t>Meo</t>
+  </si>
+  <si>
+    <t>Tơ</t>
+  </si>
+  <si>
+    <t>abaka</t>
   </si>
   <si>
     <t>SP10</t>
   </si>
   <si>
     <t>Giày laiiiii</t>
+  </si>
+  <si>
+    <t>ôaksoksoacsa</t>
+  </si>
+  <si>
+    <t>SP22</t>
+  </si>
+  <si>
+    <t>wibu</t>
+  </si>
+  <si>
+    <t>ame</t>
+  </si>
+  <si>
+    <t>SP21</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>ami</t>
   </si>
 </sst>
 </file>
@@ -140,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,148 +246,435 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
+      <c r="A5" t="s">
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32418.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>110000.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1.0</v>
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>123000.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>321000.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1.0</v>
+      <c r="A7" t="s">
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23229.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>170000.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1.0</v>
+      <c r="A8" t="s">
+        <v>44</v>
       </c>
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1.0</v>
+      <c r="A9" t="s">
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>70000.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
+      <c r="H10" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>200000.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1.0</v>
+      <c r="A11" t="s">
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>200000.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
